--- a/biology/Microbiologie/Dickson_Despommier/Dickson_Despommier.xlsx
+++ b/biology/Microbiologie/Dickson_Despommier/Dickson_Despommier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dickson D. Despommier, né le 5 juin 1940, est un microbiologiste, écologue et professeur de santé publique et de santé environnementale à l’université Columbia de New York. Titulaire de la chaire de maladies parasitaires, d’écologie médicale et d’écologie, il y mène des recherches sur le parasitisme intracellulaire.
-Ces dernières années, Despommier a reçu une attention considérable de la part des médias en raison de ses idées sur l’agriculture verticale[1], concept qu’il développa – sans en être l’inventeur, ni avoir forgé le terme – conjointement avec les étudiants de son cours d’écologie médicale en 1999.
+Ces dernières années, Despommier a reçu une attention considérable de la part des médias en raison de ses idées sur l’agriculture verticale, concept qu’il développa – sans en être l’inventeur, ni avoir forgé le terme – conjointement avec les étudiants de son cours d’écologie médicale en 1999.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dickson Despommier, The Vertical Farm : Feeding the World in the 21st Century, 2010, 305 p. (ISBN 978-0-312-61139-2, lire en ligne)
 </t>
